--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,333 +43,348 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>terrible</t>
-  </si>
-  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>garbage</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>disappointment</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>unfortunately</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>ripped</t>
+    <t>worst</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>loose</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>un</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>short</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>half</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>looked</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>pay</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>looked</t>
+    <t>color</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>way</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>put</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>4</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>old</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -379,43 +394,40 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>playing</t>
+    <t>family</t>
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -779,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,10 +799,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -848,13 +860,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -866,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -890,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -898,13 +910,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -916,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -940,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -948,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8181818181818182</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -966,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K5">
-        <v>0.7777777777777778</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -990,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -998,13 +1010,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8095238095238095</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1016,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K6">
-        <v>0.7096774193548387</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1040,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1048,13 +1060,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7727272727272727</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1066,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1090,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1098,13 +1110,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7619047619047619</v>
+        <v>0.7621359223300971</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1116,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K8">
-        <v>0.609375</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1140,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1148,13 +1160,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7580645161290323</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1166,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K9">
-        <v>0.5471698113207547</v>
+        <v>0.46875</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1190,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1198,13 +1210,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7330097087378641</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C10">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1216,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K10">
-        <v>0.4782608695652174</v>
+        <v>0.369672131147541</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>451</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>451</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1240,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>36</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1248,13 +1260,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7323943661971831</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1266,31 +1278,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K11">
-        <v>0.3819672131147541</v>
+        <v>0.3314203730272597</v>
       </c>
       <c r="L11">
+        <v>231</v>
+      </c>
+      <c r="M11">
+        <v>231</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>466</v>
-      </c>
-      <c r="M11">
-        <v>466</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1298,37 +1310,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.71875</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="C12">
+        <v>140</v>
+      </c>
+      <c r="D12">
+        <v>140</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>46</v>
       </c>
-      <c r="D12">
-        <v>46</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>18</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K12">
-        <v>0.360632183908046</v>
+        <v>0.3091286307053942</v>
       </c>
       <c r="L12">
-        <v>251</v>
+        <v>149</v>
       </c>
       <c r="M12">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1337,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>445</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1348,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7037037037037037</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1366,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K13">
-        <v>0.3070539419087137</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L13">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1390,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>334</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1398,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6756756756756757</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1416,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K14">
-        <v>0.2469879518072289</v>
+        <v>0.2530120481927711</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1440,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1448,13 +1460,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6551724137931034</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1466,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K15">
-        <v>0.225</v>
+        <v>0.2415902140672783</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1490,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>93</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1498,13 +1510,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6521739130434783</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1516,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K16">
-        <v>0.1798941798941799</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1540,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1548,13 +1560,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6052631578947368</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1566,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K17">
-        <v>0.1773700305810398</v>
+        <v>0.1484375</v>
       </c>
       <c r="L17">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1590,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>269</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1598,13 +1610,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5789473684210527</v>
+        <v>0.68</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1616,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K18">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1640,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1648,13 +1660,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5714285714285714</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C19">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D19">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1666,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K19">
-        <v>0.125</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1690,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1698,13 +1710,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1716,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K20">
-        <v>0.1165644171779141</v>
+        <v>0.1285140562248996</v>
       </c>
       <c r="L20">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1740,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1008</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1748,13 +1760,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5555555555555556</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1766,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K21">
-        <v>0.1164658634538153</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1790,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1798,13 +1810,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5483870967741935</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1816,31 +1828,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K22">
-        <v>0.08602150537634409</v>
+        <v>0.09569798068481124</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>170</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1848,13 +1860,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5416666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1866,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K23">
-        <v>0.06481481481481481</v>
+        <v>0.06406685236768803</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1890,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>303</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1898,13 +1910,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5272727272727272</v>
+        <v>0.6</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1916,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K24">
-        <v>0.06298701298701298</v>
+        <v>0.05974025974025974</v>
       </c>
       <c r="L24">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M24">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N24">
         <v>0.99</v>
@@ -1940,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>1443</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1948,13 +1960,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5101449275362319</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C25">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="D25">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1966,31 +1978,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K25">
-        <v>0.05571030640668524</v>
+        <v>0.02</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>339</v>
+        <v>735</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1998,13 +2010,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2016,31 +2028,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26">
-        <v>0.04010695187165775</v>
-      </c>
-      <c r="L26">
-        <v>15</v>
-      </c>
-      <c r="M26">
-        <v>15</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>359</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2048,13 +2036,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.462962962962963</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2066,31 +2054,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>29</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27">
-        <v>0.0267022696929239</v>
-      </c>
-      <c r="L27">
-        <v>20</v>
-      </c>
-      <c r="M27">
         <v>23</v>
-      </c>
-      <c r="N27">
-        <v>0.87</v>
-      </c>
-      <c r="O27">
-        <v>0.13</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>729</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2098,13 +2062,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4603174603174603</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2116,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2124,7 +2088,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4571428571428571</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -2142,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2150,13 +2114,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4571428571428571</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2168,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2176,13 +2140,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4330708661417323</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C31">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="D31">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2194,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>72</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2202,13 +2166,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4096385542168675</v>
+        <v>0.5</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2220,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2228,13 +2192,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4081632653061225</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2246,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2254,13 +2218,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4047619047619048</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2272,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2280,13 +2244,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2298,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2306,13 +2270,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3953488372093023</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2324,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2332,13 +2296,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3902439024390244</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2350,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2358,13 +2322,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3793103448275862</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2376,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2384,25 +2348,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3770491803278688</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C39">
         <v>23</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2410,13 +2374,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.375</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2428,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2436,13 +2400,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3707865168539326</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2454,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2462,13 +2426,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3636363636363636</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2480,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2488,13 +2452,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.359375</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2506,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2514,13 +2478,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3541666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2532,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2540,13 +2504,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3518518518518519</v>
+        <v>0.3671875</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2558,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2566,13 +2530,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.35</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2592,13 +2556,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3465346534653465</v>
+        <v>0.359375</v>
       </c>
       <c r="C47">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2610,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>132</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2618,13 +2582,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3432835820895522</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2636,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2644,7 +2608,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3392857142857143</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C49">
         <v>19</v>
@@ -2662,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2670,13 +2634,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3333333333333333</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D50">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2688,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2696,13 +2660,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3270142180094787</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C51">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2714,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>142</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2722,13 +2686,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3043478260869565</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2740,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2748,13 +2712,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3035714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2766,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2774,13 +2738,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2938144329896907</v>
+        <v>0.3316831683168317</v>
       </c>
       <c r="C54">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D54">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2792,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2800,13 +2764,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2905982905982906</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C55">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2818,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2826,13 +2790,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2653061224489796</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D56">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2844,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2852,13 +2816,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2531645569620253</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C57">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2870,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>236</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2878,13 +2842,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2432432432432433</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2896,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2904,7 +2868,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2432432432432433</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C59">
         <v>18</v>
@@ -2922,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2930,13 +2894,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2417582417582418</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2948,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2956,13 +2920,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2318840579710145</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2974,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2982,13 +2946,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2266666666666667</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3000,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3008,13 +2972,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2142857142857143</v>
+        <v>0.2567567567567567</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3034,13 +2998,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.211864406779661</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C64">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D64">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3052,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>93</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3060,13 +3024,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2028985507246377</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C65">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D65">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3078,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>220</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3086,13 +3050,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2027027027027027</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3104,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3112,13 +3076,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2025316455696203</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="C67">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3130,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>252</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3138,13 +3102,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C68">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3156,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>160</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3164,25 +3128,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2</v>
+        <v>0.2154531946508172</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="D69">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>112</v>
+        <v>528</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3190,25 +3154,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1976225854383358</v>
+        <v>0.21</v>
       </c>
       <c r="C70">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="D70">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="E70">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>540</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3216,13 +3180,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1771428571428571</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D71">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3234,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3242,13 +3206,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1728971962616822</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C72">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D72">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3260,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>177</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3268,25 +3232,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.171875</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="C73">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D73">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3294,13 +3258,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1649484536082474</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3312,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>81</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3320,13 +3284,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1649484536082474</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3338,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3346,13 +3310,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1592356687898089</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C76">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D76">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3364,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>132</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3372,13 +3336,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1585903083700441</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C77">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D77">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3390,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>382</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3398,13 +3362,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1574074074074074</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3416,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3424,25 +3388,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1496062992125984</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C79">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E79">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3450,13 +3414,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1475409836065574</v>
+        <v>0.1828193832599119</v>
       </c>
       <c r="C80">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D80">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3468,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>156</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3476,25 +3440,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1469740634005764</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C81">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D81">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E81">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>296</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3502,25 +3466,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1336898395721925</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C82">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E82">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3528,13 +3492,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1290322580645161</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C83">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D83">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3546,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3554,13 +3518,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.124223602484472</v>
+        <v>0.1530054644808743</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3572,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3580,25 +3544,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1230769230769231</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3606,25 +3570,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1117647058823529</v>
+        <v>0.1408045977011494</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E86">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>151</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3632,13 +3596,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1095890410958904</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C87">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D87">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3650,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>325</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3658,25 +3622,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1048689138576779</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="C88">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D88">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>239</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3684,7 +3648,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1038961038961039</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C89">
         <v>16</v>
@@ -3702,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3710,13 +3674,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09947643979057591</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C90">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D90">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3728,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>172</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3736,13 +3700,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09714285714285714</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="C91">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3754,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3762,25 +3726,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.09060955518945635</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C92">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D92">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E92">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>552</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3788,25 +3752,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0872093023255814</v>
+        <v>0.1150684931506849</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D93">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E93">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>157</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3814,13 +3778,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.08571428571428572</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="C94">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D94">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3832,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>256</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3840,25 +3804,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08169014084507042</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="C95">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D95">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>326</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3866,13 +3830,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.0801781737193764</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="C96">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D96">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3884,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>413</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3892,25 +3856,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.07764705882352942</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="C97">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D97">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E97">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>392</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3918,25 +3882,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.05696202531645569</v>
+        <v>0.08881578947368421</v>
       </c>
       <c r="C98">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D98">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E98">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>298</v>
+        <v>554</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3944,25 +3908,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.04810126582278481</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="C99">
         <v>38</v>
       </c>
       <c r="D99">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E99">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F99">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>752</v>
+        <v>410</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3970,25 +3934,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.04672897196261682</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C100">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D100">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E100">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>408</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3996,25 +3960,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0444104134762634</v>
+        <v>0.07887323943661972</v>
       </c>
       <c r="C101">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D101">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E101">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>624</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4022,25 +3986,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.04365079365079365</v>
+        <v>0.07746478873239436</v>
       </c>
       <c r="C102">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D102">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>482</v>
+        <v>393</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4048,25 +4012,181 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03205128205128205</v>
+        <v>0.075</v>
       </c>
       <c r="C103">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D103">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E103">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>453</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.07255520504731862</v>
+      </c>
+      <c r="C104">
+        <v>23</v>
+      </c>
+      <c r="D104">
+        <v>23</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="C105">
+        <v>18</v>
+      </c>
+      <c r="D105">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.04906542056074766</v>
+      </c>
+      <c r="C106">
+        <v>21</v>
+      </c>
+      <c r="D106">
+        <v>22</v>
+      </c>
+      <c r="E106">
+        <v>0.05</v>
+      </c>
+      <c r="F106">
+        <v>0.95</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.04701397712833545</v>
+      </c>
+      <c r="C107">
+        <v>37</v>
+      </c>
+      <c r="D107">
+        <v>44</v>
+      </c>
+      <c r="E107">
+        <v>0.16</v>
+      </c>
+      <c r="F107">
+        <v>0.84</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>0.03374233128834356</v>
+      </c>
+      <c r="C108">
+        <v>22</v>
+      </c>
+      <c r="D108">
+        <v>25</v>
+      </c>
+      <c r="E108">
+        <v>0.12</v>
+      </c>
+      <c r="F108">
+        <v>0.88</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.02470930232558139</v>
+      </c>
+      <c r="C109">
+        <v>17</v>
+      </c>
+      <c r="D109">
+        <v>21</v>
+      </c>
+      <c r="E109">
+        <v>0.19</v>
+      </c>
+      <c r="F109">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
